--- a/Code/Results/Cases/Case_2_97/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_97/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.695729784125263</v>
+        <v>0.9778419338421145</v>
       </c>
       <c r="C2">
-        <v>0.5035379587887974</v>
+        <v>0.3436140131745731</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.04449447131638173</v>
+        <v>0.1337365669603231</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1256264463684431</v>
+        <v>0.2984173100465242</v>
       </c>
       <c r="H2">
-        <v>0.1550874414011574</v>
+        <v>0.4864538644292793</v>
       </c>
       <c r="I2">
-        <v>0.1380470492438768</v>
+        <v>0.4732350977511377</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1534307953031231</v>
+        <v>0.1978996258906704</v>
       </c>
       <c r="M2">
-        <v>0.4401426480885178</v>
+        <v>0.2054740588579449</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5408379906475318</v>
+        <v>1.497060148339727</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.349453926011222</v>
+        <v>0.8649347154653242</v>
       </c>
       <c r="C3">
-        <v>0.4626247464015307</v>
+        <v>0.3302306120373828</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04729041429086955</v>
+        <v>0.1356021692935691</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1269474879447543</v>
+        <v>0.3041019625657597</v>
       </c>
       <c r="H3">
-        <v>0.1619416106701053</v>
+        <v>0.4931147252279686</v>
       </c>
       <c r="I3">
-        <v>0.1530661620619993</v>
+        <v>0.4832625443421161</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1395535432065529</v>
+        <v>0.1953551288554181</v>
       </c>
       <c r="M3">
-        <v>0.3833628676957517</v>
+        <v>0.1877879147840247</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5576397013231542</v>
+        <v>1.52281720800616</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.136673112613437</v>
+        <v>0.7953819212791018</v>
       </c>
       <c r="C4">
-        <v>0.4375540734215519</v>
+        <v>0.322024241992267</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04910930829267057</v>
+        <v>0.1368155021723507</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.128523051260018</v>
+        <v>0.3079307752659481</v>
       </c>
       <c r="H4">
-        <v>0.1666406932132034</v>
+        <v>0.4974931133764571</v>
       </c>
       <c r="I4">
-        <v>0.1630048579999404</v>
+        <v>0.4897932788413542</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1311965412226144</v>
+        <v>0.1938916434008462</v>
       </c>
       <c r="M4">
-        <v>0.3485206267294387</v>
+        <v>0.1769263345977663</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.570595505104194</v>
+        <v>1.539945681353494</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.049903316932273</v>
+        <v>0.7669836037212008</v>
       </c>
       <c r="C5">
-        <v>0.4273483944398606</v>
+        <v>0.3186832204373502</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04987576374641178</v>
+        <v>0.1373270195442335</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1293474335363136</v>
+        <v>0.3095759265809761</v>
       </c>
       <c r="H5">
-        <v>0.1686745964213543</v>
+        <v>0.4993498888062504</v>
       </c>
       <c r="I5">
-        <v>0.1672286352771675</v>
+        <v>0.4925484998674534</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1278297402031683</v>
+        <v>0.1933201879857194</v>
       </c>
       <c r="M5">
-        <v>0.3343237706916966</v>
+        <v>0.1724999300994909</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5765086657475464</v>
+        <v>1.547255459033892</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.035491136714825</v>
+        <v>0.7622648275964252</v>
       </c>
       <c r="C6">
-        <v>0.4256543533195725</v>
+        <v>0.3181286464433413</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0500045446883372</v>
+        <v>0.1374129882773061</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1294950521379334</v>
+        <v>0.3098542227841818</v>
       </c>
       <c r="H6">
-        <v>0.1690193866664913</v>
+        <v>0.4996625859389958</v>
       </c>
       <c r="I6">
-        <v>0.1679402922222435</v>
+        <v>0.4930116698816107</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1272729571090778</v>
+        <v>0.1932268058623947</v>
       </c>
       <c r="M6">
-        <v>0.3319663923505445</v>
+        <v>0.1717649254645579</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5775279494388599</v>
+        <v>1.548489145190821</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.135503170306549</v>
+        <v>0.7949991514020098</v>
       </c>
       <c r="C7">
-        <v>0.4374163945078351</v>
+        <v>0.3219791706209492</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04911954336254598</v>
+        <v>0.1368223315221971</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1285334437084877</v>
+        <v>0.3079526189687627</v>
       </c>
       <c r="H7">
-        <v>0.1666676470083495</v>
+        <v>0.4975178607901753</v>
       </c>
       <c r="I7">
-        <v>0.1630611266389375</v>
+        <v>0.4898300566917939</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1311509815988572</v>
+        <v>0.19388383553067</v>
       </c>
       <c r="M7">
-        <v>0.3483291608920212</v>
+        <v>0.1768666390138236</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5706727257027779</v>
+        <v>1.540042928963828</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.576356905635862</v>
+        <v>0.9389599649086904</v>
       </c>
       <c r="C8">
-        <v>0.4894195189575612</v>
+        <v>0.3389973200951601</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.04543703091385587</v>
+        <v>0.1343657539409806</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1259171970071264</v>
+        <v>0.300307010441351</v>
       </c>
       <c r="H8">
-        <v>0.1573462467205644</v>
+        <v>0.4886906190211704</v>
       </c>
       <c r="I8">
-        <v>0.1430728000432513</v>
+        <v>0.4766149045411243</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1486104525474019</v>
+        <v>0.197001809194802</v>
       </c>
       <c r="M8">
-        <v>0.4205584224062662</v>
+        <v>0.19937653121886</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5460648558129435</v>
+        <v>1.505668252559033</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.44047818820502</v>
+        <v>1.219381552169693</v>
       </c>
       <c r="C9">
-        <v>0.5918900925944115</v>
+        <v>0.3724441692888547</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03904716167843564</v>
+        <v>0.1300860503091297</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1273190120605108</v>
+        <v>0.2880088363446163</v>
       </c>
       <c r="H9">
-        <v>0.1431656546006153</v>
+        <v>0.4736711353935519</v>
       </c>
       <c r="I9">
-        <v>0.1098730324012713</v>
+        <v>0.453670906615641</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1842634866521351</v>
+        <v>0.2038978600116153</v>
       </c>
       <c r="M9">
-        <v>0.562544791751769</v>
+        <v>0.2434882737164372</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5201735534190846</v>
+        <v>1.448704487685774</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.076556864578208</v>
+        <v>1.424168613769325</v>
       </c>
       <c r="C10">
-        <v>0.6676258362567467</v>
+        <v>0.3970470147060041</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03488913591812759</v>
+        <v>0.127268487784642</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1330120525084411</v>
+        <v>0.2806294261029549</v>
       </c>
       <c r="H10">
-        <v>0.1355458327595045</v>
+        <v>0.4640337761706803</v>
       </c>
       <c r="I10">
-        <v>0.08958512659748497</v>
+        <v>0.4386308268088914</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2114932284977726</v>
+        <v>0.2094382670979797</v>
       </c>
       <c r="M10">
-        <v>0.6673506432375191</v>
+        <v>0.2758652770320893</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5168578608618333</v>
+        <v>1.413251068095917</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.366540408883225</v>
+        <v>1.517045039992468</v>
       </c>
       <c r="C11">
-        <v>0.7022148949817222</v>
+        <v>0.4082427128059862</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0331208964970493</v>
+        <v>0.1260574328506388</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1367744876621302</v>
+        <v>0.2776347468691753</v>
       </c>
       <c r="H11">
-        <v>0.1327575977824367</v>
+        <v>0.459953140546645</v>
       </c>
       <c r="I11">
-        <v>0.08135159489654775</v>
+        <v>0.4321844271723778</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2241464256096464</v>
+        <v>0.212061123179808</v>
       </c>
       <c r="M11">
-        <v>0.7152028185600514</v>
+        <v>0.290584838433908</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.5192470115570842</v>
+        <v>1.398518076075703</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.476470429892913</v>
+        <v>1.552172448023896</v>
       </c>
       <c r="C12">
-        <v>0.7153357002898986</v>
+        <v>0.4124824551820154</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03246964208879072</v>
+        <v>0.1256089852429465</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.138382089866063</v>
+        <v>0.2765530618178573</v>
       </c>
       <c r="H12">
-        <v>0.1318055692171924</v>
+        <v>0.4584515711137627</v>
       </c>
       <c r="I12">
-        <v>0.07838628417639271</v>
+        <v>0.4298003192429549</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2289797270491505</v>
+        <v>0.2130690093367633</v>
       </c>
       <c r="M12">
-        <v>0.7333542498475296</v>
+        <v>0.2961571822725944</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5207555715831234</v>
+        <v>1.393140215254675</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.452789226205255</v>
+        <v>1.544609075599851</v>
       </c>
       <c r="C13">
-        <v>0.7125088400691197</v>
+        <v>0.4115693487958083</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03260907562410931</v>
+        <v>0.1257051150684689</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.1380274954995286</v>
+        <v>0.276783690575563</v>
       </c>
       <c r="H13">
-        <v>0.1320058835763476</v>
+        <v>0.4587730176480918</v>
       </c>
       <c r="I13">
-        <v>0.07901797656103149</v>
+        <v>0.4303112419918067</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2279368710191676</v>
+        <v>0.2128512918177563</v>
       </c>
       <c r="M13">
-        <v>0.7294435482250634</v>
+        <v>0.2949571566526856</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5204030998097409</v>
+        <v>1.394289475530243</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.375581846426087</v>
+        <v>1.519935865432956</v>
       </c>
       <c r="C14">
-        <v>0.7032938785999079</v>
+        <v>0.4085915175366495</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03306694622976819</v>
+        <v>0.1260203353764108</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1369029967876401</v>
+        <v>0.2775447057288645</v>
       </c>
       <c r="H14">
-        <v>0.1326771556188717</v>
+        <v>0.4598287298917469</v>
       </c>
       <c r="I14">
-        <v>0.08110452385530031</v>
+        <v>0.431987141912904</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2245432052880858</v>
+        <v>0.2121437490316538</v>
       </c>
       <c r="M14">
-        <v>0.7166954957397778</v>
+        <v>0.2910433133004489</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.5193587614915032</v>
+        <v>1.398071600322496</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.328306571804603</v>
+        <v>1.504817159873994</v>
       </c>
       <c r="C15">
-        <v>0.6976524971339302</v>
+        <v>0.4067675218964837</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03334981227585865</v>
+        <v>0.1262147388079665</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.1362384588239109</v>
+        <v>0.278017672243962</v>
       </c>
       <c r="H15">
-        <v>0.1331020431270673</v>
+        <v>0.4604810736644112</v>
       </c>
       <c r="I15">
-        <v>0.08240274918509893</v>
+        <v>0.4330211068512275</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2224700404489397</v>
+        <v>0.2117122666625875</v>
       </c>
       <c r="M15">
-        <v>0.7088911371992594</v>
+        <v>0.2886457478668376</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5187990465925765</v>
+        <v>1.400414481683953</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.057620843905681</v>
+        <v>1.418093045151863</v>
       </c>
       <c r="C16">
-        <v>0.6653683615641626</v>
+        <v>0.3963153936393553</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03500722675962503</v>
+        <v>0.1273490542954163</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1327909608637725</v>
+        <v>0.2808324457311784</v>
       </c>
       <c r="H16">
-        <v>0.1357422252729563</v>
+        <v>0.4643065651550629</v>
       </c>
       <c r="I16">
-        <v>0.09014403005296234</v>
+        <v>0.4390600831710314</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.210671966039456</v>
+        <v>0.2092689136791961</v>
       </c>
       <c r="M16">
-        <v>0.6642273926825482</v>
+        <v>0.2749031096121186</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5167837986080031</v>
+        <v>1.414242026073524</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.891744879488215</v>
+        <v>1.36481668542541</v>
       </c>
       <c r="C17">
-        <v>0.6456001401656977</v>
+        <v>0.389904049987905</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03605599588579089</v>
+        <v>0.128063013261474</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.1309862182778119</v>
+        <v>0.2826521733492839</v>
       </c>
       <c r="H17">
-        <v>0.1375399259409136</v>
+        <v>0.4667311313704232</v>
       </c>
       <c r="I17">
-        <v>0.09515454284197755</v>
+        <v>0.4428661760080415</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2035048593968583</v>
+        <v>0.2077961968846154</v>
       </c>
       <c r="M17">
-        <v>0.6368764402891358</v>
+        <v>0.2664699135995505</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5165757702879006</v>
+        <v>1.423082492746929</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.796394654355254</v>
+        <v>1.334147103199143</v>
       </c>
       <c r="C18">
-        <v>0.6342426312174609</v>
+        <v>0.3862167882792562</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03667078417540459</v>
+        <v>0.1284803157789265</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1300576499549564</v>
+        <v>0.2837329149227301</v>
       </c>
       <c r="H18">
-        <v>0.1386373374316747</v>
+        <v>0.4681542370632528</v>
       </c>
       <c r="I18">
-        <v>0.09812956735154899</v>
+        <v>0.4450925490137125</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1994073659696198</v>
+        <v>0.2069587809251345</v>
       </c>
       <c r="M18">
-        <v>0.6211610507431189</v>
+        <v>0.261618545690979</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5168202130202104</v>
+        <v>1.428298558017289</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.764119684644584</v>
+        <v>1.323758440543202</v>
       </c>
       <c r="C19">
-        <v>0.6303992574690369</v>
+        <v>0.3849684201048547</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03688090884516337</v>
+        <v>0.1286227500511666</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1297616355223994</v>
+        <v>0.2841046816770074</v>
       </c>
       <c r="H19">
-        <v>0.1390196089322941</v>
+        <v>0.4686409799668283</v>
       </c>
       <c r="I19">
-        <v>0.09915257422891077</v>
+        <v>0.4458527469430598</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1980241871248865</v>
+        <v>0.2066769061513867</v>
       </c>
       <c r="M19">
-        <v>0.6158427000759019</v>
+        <v>0.259975826466686</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5169642327027759</v>
+        <v>1.430087153864392</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.909396530308982</v>
+        <v>1.370490796857723</v>
       </c>
       <c r="C20">
-        <v>0.6477031706396872</v>
+        <v>0.390586512440791</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0359431514391072</v>
+        <v>0.1279863227010454</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1311669060699572</v>
+        <v>0.2824549310691111</v>
       </c>
       <c r="H20">
-        <v>0.1373419492835382</v>
+        <v>0.4664700760585561</v>
       </c>
       <c r="I20">
-        <v>0.09461146242531537</v>
+        <v>0.4424571588802628</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2042652148182782</v>
+        <v>0.2079519716956497</v>
       </c>
       <c r="M20">
-        <v>0.6397862845262594</v>
+        <v>0.2673677288046576</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5165599271442858</v>
+        <v>1.422127820337622</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.398256036654004</v>
+        <v>1.527184167269183</v>
       </c>
       <c r="C21">
-        <v>0.7059998950380191</v>
+        <v>0.4094661769075287</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03293195576223257</v>
+        <v>0.1259274720667</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1372282089791383</v>
+        <v>0.2773197548422672</v>
       </c>
       <c r="H21">
-        <v>0.1324771169296426</v>
+        <v>0.4595174558432831</v>
       </c>
       <c r="I21">
-        <v>0.08048743650914947</v>
+        <v>0.4314933412681929</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2255388432376293</v>
+        <v>0.2123511739974191</v>
       </c>
       <c r="M21">
-        <v>0.7204390235957092</v>
+        <v>0.292192951146518</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.519648761436855</v>
+        <v>1.396955233131493</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.71846602539614</v>
+        <v>1.629341358559998</v>
       </c>
       <c r="C22">
-        <v>0.7442339709769215</v>
+        <v>0.4218059795319675</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0310711690158495</v>
+        <v>0.1246410670186077</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.1422626713997914</v>
+        <v>0.2742687804027781</v>
       </c>
       <c r="H22">
-        <v>0.1299060075573735</v>
+        <v>0.4552281295218137</v>
       </c>
       <c r="I22">
-        <v>0.07215051895783553</v>
+        <v>0.4246601806163293</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2396878941372478</v>
+        <v>0.2153117671258116</v>
       </c>
       <c r="M22">
-        <v>0.7733329907936266</v>
+        <v>0.3084079780632507</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.5252092926960188</v>
+        <v>1.381676540988963</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.547488515733164</v>
+        <v>1.574841861892821</v>
       </c>
       <c r="C23">
-        <v>0.7238144064169205</v>
+        <v>0.4152200361043015</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03205428590719239</v>
+        <v>0.1253222343808686</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1394725609035916</v>
+        <v>0.2758691406874618</v>
       </c>
       <c r="H23">
-        <v>0.1312204021554138</v>
+        <v>0.4574941123555902</v>
       </c>
       <c r="I23">
-        <v>0.0765150378286954</v>
+        <v>0.4282767114038171</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2321125909279402</v>
+        <v>0.2137238468744016</v>
       </c>
       <c r="M23">
-        <v>0.7450837959454759</v>
+        <v>0.2997547164712699</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.5219023923289541</v>
+        <v>1.389723531484591</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.901416177308988</v>
+        <v>1.367925656413831</v>
       </c>
       <c r="C24">
-        <v>0.6467523674140807</v>
+        <v>0.390277975170676</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.0359941315900848</v>
+        <v>0.1280209732031483</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1310848786667691</v>
+        <v>0.2825439966840548</v>
       </c>
       <c r="H24">
-        <v>0.1374312560015554</v>
+        <v>0.4665880082429936</v>
       </c>
       <c r="I24">
-        <v>0.09485669570698096</v>
+        <v>0.4426419565462618</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2039213868444563</v>
+        <v>0.2078815170282837</v>
       </c>
       <c r="M24">
-        <v>0.6384707162171352</v>
+        <v>0.2669618359032384</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.5165659591723539</v>
+        <v>1.422559011741996</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.20660954421686</v>
+        <v>1.143731208782356</v>
       </c>
       <c r="C25">
-        <v>0.5641015871136403</v>
+        <v>0.3633896057731079</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04068378527159056</v>
+        <v>0.1311863716562504</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1261724929989896</v>
+        <v>0.2910459451825886</v>
       </c>
       <c r="H25">
-        <v>0.1465331537498642</v>
+        <v>0.4774889656576136</v>
       </c>
       <c r="I25">
-        <v>0.1181676460814689</v>
+        <v>0.4595592177628696</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1744496755952127</v>
+        <v>0.2019488843164794</v>
       </c>
       <c r="M25">
-        <v>0.5240692558792546</v>
+        <v>0.2315595087594389</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5245766795722488</v>
+        <v>1.462993344366865</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_97/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_97/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9778419338421145</v>
+        <v>2.695729784125263</v>
       </c>
       <c r="C2">
-        <v>0.3436140131745731</v>
+        <v>0.5035379587890816</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1337365669603231</v>
+        <v>0.04449447131637635</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.2984173100465242</v>
+        <v>0.1256264463684644</v>
       </c>
       <c r="H2">
-        <v>0.4864538644292793</v>
+        <v>0.1550874414011716</v>
       </c>
       <c r="I2">
-        <v>0.4732350977511377</v>
+        <v>0.1380470492438768</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1978996258906704</v>
+        <v>0.1534307953030876</v>
       </c>
       <c r="M2">
-        <v>0.2054740588579449</v>
+        <v>0.4401426480885178</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.497060148339727</v>
+        <v>0.5408379906475886</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8649347154653242</v>
+        <v>2.349453926011279</v>
       </c>
       <c r="C3">
-        <v>0.3302306120373828</v>
+        <v>0.4626247464015876</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1356021692935691</v>
+        <v>0.04729041429086722</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.3041019625657597</v>
+        <v>0.1269474879447543</v>
       </c>
       <c r="H3">
-        <v>0.4931147252279686</v>
+        <v>0.1619416106700982</v>
       </c>
       <c r="I3">
-        <v>0.4832625443421161</v>
+        <v>0.1530661620620082</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1953551288554181</v>
+        <v>0.1395535432064392</v>
       </c>
       <c r="M3">
-        <v>0.1877879147840247</v>
+        <v>0.3833628676957659</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.52281720800616</v>
+        <v>0.5576397013232111</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7953819212791018</v>
+        <v>2.13667311261338</v>
       </c>
       <c r="C4">
-        <v>0.322024241992267</v>
+        <v>0.4375540734213246</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1368155021723507</v>
+        <v>0.04910930829267013</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.3079307752659481</v>
+        <v>0.1285230512599611</v>
       </c>
       <c r="H4">
-        <v>0.4974931133764571</v>
+        <v>0.1666406932130897</v>
       </c>
       <c r="I4">
-        <v>0.4897932788413542</v>
+        <v>0.1630048579999617</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1938916434008462</v>
+        <v>0.1311965412225504</v>
       </c>
       <c r="M4">
-        <v>0.1769263345977663</v>
+        <v>0.3485206267294316</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.539945681353494</v>
+        <v>0.5705955051042793</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7669836037212008</v>
+        <v>2.049903316932387</v>
       </c>
       <c r="C5">
-        <v>0.3186832204373502</v>
+        <v>0.4273483944396901</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1373270195442335</v>
+        <v>0.04987576374640995</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.3095759265809761</v>
+        <v>0.1293474335362639</v>
       </c>
       <c r="H5">
-        <v>0.4993498888062504</v>
+        <v>0.1686745964213507</v>
       </c>
       <c r="I5">
-        <v>0.4925484998674534</v>
+        <v>0.1672286352771621</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1933201879857194</v>
+        <v>0.1278297402030475</v>
       </c>
       <c r="M5">
-        <v>0.1724999300994909</v>
+        <v>0.3343237706916966</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.547255459033892</v>
+        <v>0.5765086657475536</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7622648275964252</v>
+        <v>2.035491136714938</v>
       </c>
       <c r="C6">
-        <v>0.3181286464433413</v>
+        <v>0.4256543533195725</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1374129882773061</v>
+        <v>0.05000454468836613</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.3098542227841818</v>
+        <v>0.1294950521379299</v>
       </c>
       <c r="H6">
-        <v>0.4996625859389958</v>
+        <v>0.1690193866663776</v>
       </c>
       <c r="I6">
-        <v>0.4930116698816107</v>
+        <v>0.1679402922222417</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1932268058623947</v>
+        <v>0.1272729571089997</v>
       </c>
       <c r="M6">
-        <v>0.1717649254645579</v>
+        <v>0.3319663923505445</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.548489145190821</v>
+        <v>0.5775279494388457</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7949991514020098</v>
+        <v>2.13550317030672</v>
       </c>
       <c r="C7">
-        <v>0.3219791706209492</v>
+        <v>0.4374163945080625</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1368223315221971</v>
+        <v>0.04911954336254293</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.3079526189687627</v>
+        <v>0.1285334437085019</v>
       </c>
       <c r="H7">
-        <v>0.4975178607901753</v>
+        <v>0.1666676470083495</v>
       </c>
       <c r="I7">
-        <v>0.4898300566917939</v>
+        <v>0.1630611266389597</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.19388383553067</v>
+        <v>0.1311509815987719</v>
       </c>
       <c r="M7">
-        <v>0.1768666390138236</v>
+        <v>0.3483291608920283</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.540042928963828</v>
+        <v>0.5706727257028135</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9389599649086904</v>
+        <v>2.576356905635748</v>
       </c>
       <c r="C8">
-        <v>0.3389973200951601</v>
+        <v>0.4894195189575612</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1343657539409806</v>
+        <v>0.04543703091382473</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.300307010441351</v>
+        <v>0.1259171970070554</v>
       </c>
       <c r="H8">
-        <v>0.4886906190211704</v>
+        <v>0.1573462467206852</v>
       </c>
       <c r="I8">
-        <v>0.4766149045411243</v>
+        <v>0.1430728000432513</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.197001809194802</v>
+        <v>0.1486104525473664</v>
       </c>
       <c r="M8">
-        <v>0.19937653121886</v>
+        <v>0.4205584224062591</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.505668252559033</v>
+        <v>0.5460648558130146</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.219381552169693</v>
+        <v>3.440478188204963</v>
       </c>
       <c r="C9">
-        <v>0.3724441692888547</v>
+        <v>0.5918900925941841</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1300860503091297</v>
+        <v>0.03904716167843647</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.2880088363446163</v>
+        <v>0.1273190120605889</v>
       </c>
       <c r="H9">
-        <v>0.4736711353935519</v>
+        <v>0.1431656546005087</v>
       </c>
       <c r="I9">
-        <v>0.453670906615641</v>
+        <v>0.1098730324012704</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2038978600116153</v>
+        <v>0.184263486652128</v>
       </c>
       <c r="M9">
-        <v>0.2434882737164372</v>
+        <v>0.5625447917517548</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.448704487685774</v>
+        <v>0.5201735534190988</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.424168613769325</v>
+        <v>4.076556864578208</v>
       </c>
       <c r="C10">
-        <v>0.3970470147060041</v>
+        <v>0.6676258362570024</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.127268487784642</v>
+        <v>0.03488913591812476</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.2806294261029549</v>
+        <v>0.1330120525083842</v>
       </c>
       <c r="H10">
-        <v>0.4640337761706803</v>
+        <v>0.1355458327595045</v>
       </c>
       <c r="I10">
-        <v>0.4386308268088914</v>
+        <v>0.08958512659746809</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2094382670979797</v>
+        <v>0.2114932284978721</v>
       </c>
       <c r="M10">
-        <v>0.2758652770320893</v>
+        <v>0.6673506432375191</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.413251068095917</v>
+        <v>0.5168578608618333</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.517045039992468</v>
+        <v>4.366540408883395</v>
       </c>
       <c r="C11">
-        <v>0.4082427128059862</v>
+        <v>0.702214894981978</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1260574328506388</v>
+        <v>0.03312089649707661</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.2776347468691753</v>
+        <v>0.136774487662052</v>
       </c>
       <c r="H11">
-        <v>0.459953140546645</v>
+        <v>0.1327575977825504</v>
       </c>
       <c r="I11">
-        <v>0.4321844271723778</v>
+        <v>0.08135159489656107</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.212061123179808</v>
+        <v>0.2241464256097885</v>
       </c>
       <c r="M11">
-        <v>0.290584838433908</v>
+        <v>0.7152028185600301</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.398518076075703</v>
+        <v>0.51924701155707</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.552172448023896</v>
+        <v>4.47647042989297</v>
       </c>
       <c r="C12">
-        <v>0.4124824551820154</v>
+        <v>0.7153357002900691</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1256089852429465</v>
+        <v>0.03246964208881054</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.2765530618178573</v>
+        <v>0.1383820898660773</v>
       </c>
       <c r="H12">
-        <v>0.4584515711137627</v>
+        <v>0.1318055692172067</v>
       </c>
       <c r="I12">
-        <v>0.4298003192429549</v>
+        <v>0.07838628417639537</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2130690093367633</v>
+        <v>0.2289797270490652</v>
       </c>
       <c r="M12">
-        <v>0.2961571822725944</v>
+        <v>0.7333542498475509</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.393140215254675</v>
+        <v>0.5207555715831234</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.544609075599851</v>
+        <v>4.45278922620497</v>
       </c>
       <c r="C13">
-        <v>0.4115693487958083</v>
+        <v>0.7125088400695461</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1257051150684689</v>
+        <v>0.0326090756241002</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.276783690575563</v>
+        <v>0.1380274954995357</v>
       </c>
       <c r="H13">
-        <v>0.4587730176480918</v>
+        <v>0.1320058835763476</v>
       </c>
       <c r="I13">
-        <v>0.4303112419918067</v>
+        <v>0.07901797656103682</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2128512918177563</v>
+        <v>0.2279368710192387</v>
       </c>
       <c r="M13">
-        <v>0.2949571566526856</v>
+        <v>0.7294435482250563</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.394289475530243</v>
+        <v>0.5204030998097124</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.519935865432956</v>
+        <v>4.37558184642603</v>
       </c>
       <c r="C14">
-        <v>0.4085915175366495</v>
+        <v>0.7032938785999079</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1260203353764108</v>
+        <v>0.03306694622976702</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.2775447057288645</v>
+        <v>0.1369029967876259</v>
       </c>
       <c r="H14">
-        <v>0.4598287298917469</v>
+        <v>0.1326771556189854</v>
       </c>
       <c r="I14">
-        <v>0.431987141912904</v>
+        <v>0.08110452385529943</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2121437490316538</v>
+        <v>0.2245432052880858</v>
       </c>
       <c r="M14">
-        <v>0.2910433133004489</v>
+        <v>0.7166954957397635</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.398071600322496</v>
+        <v>0.5193587614915032</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.504817159873994</v>
+        <v>4.328306571804603</v>
       </c>
       <c r="C15">
-        <v>0.4067675218964837</v>
+        <v>0.6976524971342144</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1262147388079665</v>
+        <v>0.03334981227582734</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.278017672243962</v>
+        <v>0.1362384588239109</v>
       </c>
       <c r="H15">
-        <v>0.4604810736644112</v>
+        <v>0.1331020431270673</v>
       </c>
       <c r="I15">
-        <v>0.4330211068512275</v>
+        <v>0.08240274918510337</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2117122666625875</v>
+        <v>0.2224700404490818</v>
       </c>
       <c r="M15">
-        <v>0.2886457478668376</v>
+        <v>0.7088911371992594</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.400414481683953</v>
+        <v>0.5187990465925623</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.418093045151863</v>
+        <v>4.057620843905681</v>
       </c>
       <c r="C16">
-        <v>0.3963153936393553</v>
+        <v>0.6653683615639636</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1273490542954163</v>
+        <v>0.03500722675962292</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.2808324457311784</v>
+        <v>0.1327909608638294</v>
       </c>
       <c r="H16">
-        <v>0.4643065651550629</v>
+        <v>0.1357422252729492</v>
       </c>
       <c r="I16">
-        <v>0.4390600831710314</v>
+        <v>0.09014403005294724</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2092689136791961</v>
+        <v>0.210671966039456</v>
       </c>
       <c r="M16">
-        <v>0.2749031096121186</v>
+        <v>0.6642273926825695</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.414242026073524</v>
+        <v>0.5167837986080173</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.36481668542541</v>
+        <v>3.891744879488101</v>
       </c>
       <c r="C17">
-        <v>0.389904049987905</v>
+        <v>0.6456001401656977</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.128063013261474</v>
+        <v>0.03605599588578384</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.2826521733492839</v>
+        <v>0.1309862182778048</v>
       </c>
       <c r="H17">
-        <v>0.4667311313704232</v>
+        <v>0.1375399259409136</v>
       </c>
       <c r="I17">
-        <v>0.4428661760080415</v>
+        <v>0.095154542841974</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2077961968846154</v>
+        <v>0.2035048593969719</v>
       </c>
       <c r="M17">
-        <v>0.2664699135995505</v>
+        <v>0.63687644028915</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.423082492746929</v>
+        <v>0.5165757702879432</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.334147103199143</v>
+        <v>3.796394654354856</v>
       </c>
       <c r="C18">
-        <v>0.3862167882792562</v>
+        <v>0.6342426312171767</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1284803157789265</v>
+        <v>0.03667078417537351</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.2837329149227301</v>
+        <v>0.1300576499550274</v>
       </c>
       <c r="H18">
-        <v>0.4681542370632528</v>
+        <v>0.1386373374316747</v>
       </c>
       <c r="I18">
-        <v>0.4450925490137125</v>
+        <v>0.0981295673515481</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2069587809251345</v>
+        <v>0.1994073659696056</v>
       </c>
       <c r="M18">
-        <v>0.261618545690979</v>
+        <v>0.6211610507431402</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.428298558017289</v>
+        <v>0.5168202130202673</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.323758440543202</v>
+        <v>3.764119684644527</v>
       </c>
       <c r="C19">
-        <v>0.3849684201048547</v>
+        <v>0.6303992574690369</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1286227500511666</v>
+        <v>0.03688090884515949</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.2841046816770074</v>
+        <v>0.1297616355224207</v>
       </c>
       <c r="H19">
-        <v>0.4686409799668283</v>
+        <v>0.1390196089323084</v>
       </c>
       <c r="I19">
-        <v>0.4458527469430598</v>
+        <v>0.0991525742289241</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2066769061513867</v>
+        <v>0.1980241871250144</v>
       </c>
       <c r="M19">
-        <v>0.259975826466686</v>
+        <v>0.6158427000758806</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.430087153864392</v>
+        <v>0.5169642327027617</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.370490796857723</v>
+        <v>3.909396530309209</v>
       </c>
       <c r="C20">
-        <v>0.390586512440791</v>
+        <v>0.6477031706394314</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1279863227010454</v>
+        <v>0.03594315143904647</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.2824549310691111</v>
+        <v>0.1311669060699074</v>
       </c>
       <c r="H20">
-        <v>0.4664700760585561</v>
+        <v>0.1373419492835382</v>
       </c>
       <c r="I20">
-        <v>0.4424571588802628</v>
+        <v>0.09461146242531893</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2079519716956497</v>
+        <v>0.2042652148183635</v>
       </c>
       <c r="M20">
-        <v>0.2673677288046576</v>
+        <v>0.6397862845262807</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.422127820337622</v>
+        <v>0.5165599271443284</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.527184167269183</v>
+        <v>4.398256036654004</v>
       </c>
       <c r="C21">
-        <v>0.4094661769075287</v>
+        <v>0.7059998950380191</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1259274720667</v>
+        <v>0.03293195576223396</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.2773197548422672</v>
+        <v>0.1372282089790815</v>
       </c>
       <c r="H21">
-        <v>0.4595174558432831</v>
+        <v>0.1324771169297563</v>
       </c>
       <c r="I21">
-        <v>0.4314933412681929</v>
+        <v>0.08048743650916368</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2123511739974191</v>
+        <v>0.2255388432375582</v>
       </c>
       <c r="M21">
-        <v>0.292192951146518</v>
+        <v>0.7204390235957021</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.396955233131493</v>
+        <v>0.519648761436855</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.629341358559998</v>
+        <v>4.718466025396083</v>
       </c>
       <c r="C22">
-        <v>0.4218059795319675</v>
+        <v>0.7442339709769499</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1246410670186077</v>
+        <v>0.03107116901585144</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.2742687804027781</v>
+        <v>0.1422626713997843</v>
       </c>
       <c r="H22">
-        <v>0.4552281295218137</v>
+        <v>0.1299060075573735</v>
       </c>
       <c r="I22">
-        <v>0.4246601806163293</v>
+        <v>0.07215051895783819</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2153117671258116</v>
+        <v>0.2396878941372762</v>
       </c>
       <c r="M22">
-        <v>0.3084079780632507</v>
+        <v>0.7733329907936266</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.381676540988963</v>
+        <v>0.5252092926959477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.574841861892821</v>
+        <v>4.547488515733164</v>
       </c>
       <c r="C23">
-        <v>0.4152200361043015</v>
+        <v>0.7238144064171195</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1253222343808686</v>
+        <v>0.03205428590719173</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.2758691406874618</v>
+        <v>0.1394725609036556</v>
       </c>
       <c r="H23">
-        <v>0.4574941123555902</v>
+        <v>0.1312204021554066</v>
       </c>
       <c r="I23">
-        <v>0.4282767114038171</v>
+        <v>0.07651503782869273</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2137238468744016</v>
+        <v>0.2321125909281108</v>
       </c>
       <c r="M23">
-        <v>0.2997547164712699</v>
+        <v>0.7450837959454972</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.389723531484591</v>
+        <v>0.5219023923289683</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.367925656413831</v>
+        <v>3.901416177309045</v>
       </c>
       <c r="C24">
-        <v>0.390277975170676</v>
+        <v>0.6467523674140523</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1280209732031483</v>
+        <v>0.03599413159005538</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.2825439966840548</v>
+        <v>0.1310848786667123</v>
       </c>
       <c r="H24">
-        <v>0.4665880082429936</v>
+        <v>0.1374312560016762</v>
       </c>
       <c r="I24">
-        <v>0.4426419565462618</v>
+        <v>0.09485669570698096</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2078815170282837</v>
+        <v>0.2039213868444563</v>
       </c>
       <c r="M24">
-        <v>0.2669618359032384</v>
+        <v>0.6384707162171352</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.422559011741996</v>
+        <v>0.5165659591722971</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.143731208782356</v>
+        <v>3.20660954421669</v>
       </c>
       <c r="C25">
-        <v>0.3633896057731079</v>
+        <v>0.5641015871138677</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1311863716562504</v>
+        <v>0.04068378527158678</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.2910459451825886</v>
+        <v>0.1261724929990038</v>
       </c>
       <c r="H25">
-        <v>0.4774889656576136</v>
+        <v>0.1465331537498642</v>
       </c>
       <c r="I25">
-        <v>0.4595592177628696</v>
+        <v>0.1181676460814689</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2019488843164794</v>
+        <v>0.1744496755952056</v>
       </c>
       <c r="M25">
-        <v>0.2315595087594389</v>
+        <v>0.5240692558792546</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.462993344366865</v>
+        <v>0.5245766795723199</v>
       </c>
     </row>
   </sheetData>
